--- a/koboforms/actiondesign.xlsx
+++ b/koboforms/actiondesign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deo/anticipatoryactiondecisions/koboforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dasdoresngueussiengamini/working/AA_projets/general/aadecisionoverviewFR/koboforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B3B43B-B0CD-F948-A479-4F0B317D473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E506F636-03F0-2644-B092-C99352D52D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="-18260" windowWidth="28040" windowHeight="17440" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" activeTab="2" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -63,100 +63,98 @@
     <t>version</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>multiline</t>
+  </si>
+  <si>
+    <t>Votre adresse e‑mail</t>
+  </si>
+  <si>
+    <t>Quelles sont les conséquences de ne pas agir pendant les sécheresses, et d’agir lorsqu’il n’y a pas de sécheresse, et quelles années correspondraient à chacun de ces cas ?</t>
+  </si>
+  <si>
+    <t>Choisissez‑vous de déclencher l’action en vous basant sur le seuil de 40 %, tel quel, pour l’achat et la distribution de semences ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisissez‑vous de mettre en place un déclencheur d’action qui se déclenche moins souvent, uniquement lors des prévisions les plus fortes, afin de réduire les fausses alertes ? </t>
+  </si>
+  <si>
+    <t>Souhaitez‑vous mettre en place un déclencheur d’action coûteux qui se produise dans 60 % des cas, y compris pour la nouvelle année d’action de 2015 ?</t>
+  </si>
+  <si>
+    <t>Choisiriez‑vous de modifier la conception de l’action afin de réduire les regrets, en achetant les semences sur la base du déclencheur de prévision, mais en ne les distribuant que s’il y a effectivement une sécheresse ?</t>
+  </si>
+  <si>
+    <t>Avec la stratégie séparée décrite ci‑dessus, quelle fréquence de déclenchement de l’action choisiriez‑vous ?</t>
+  </si>
+  <si>
+    <t>Utiliseriez‑vous différentes stratégies pour différentes fréquences de déclenchement ? Si oui, lesquelles ?</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Action Design FR</t>
+  </si>
+  <si>
+    <t>ActionDesignFR</t>
+  </si>
+  <si>
     <t>v1</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>Your email</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>q6</t>
-  </si>
-  <si>
-    <t>q7</t>
-  </si>
-  <si>
-    <t>q8</t>
-  </si>
-  <si>
-    <t>What are the consequences of not acting during droughts, and of acting if there is no drought, and what years would each of those be?</t>
-  </si>
-  <si>
-    <t>multiline</t>
-  </si>
-  <si>
-    <t>Do you choose to make an action trigger based on the 40% trigger as is, for proc
-uring and distributing seeds?</t>
-  </si>
-  <si>
-    <t>Do you choose to make an action trigger that triggers less often, only in the st
-rongest forecast to reduce false alarms?</t>
-  </si>
-  <si>
-    <t>Would you want to make an expensive acton trigger that occurs 60% of the time, including the new action year of 2015?</t>
-  </si>
-  <si>
-    <t>Would you choose to change the design of the action, so that you have fewer regrets, where you procure the seeds using the forecast trigger, but then distribute them only if there is a drought?</t>
-  </si>
-  <si>
-    <t>With the separated strategy above, what action trigger frequency would you use?</t>
-  </si>
-  <si>
-    <t>Would you use different strategies for different trigger frequencies? If so, what?</t>
-  </si>
-  <si>
-    <t>Action Design</t>
-  </si>
-  <si>
-    <t>ActionDesign</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +182,12 @@
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -536,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C7F9E-9867-6243-AAB9-77628DC2993D}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,10 +560,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -567,10 +571,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
@@ -581,41 +585,41 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -623,13 +627,13 @@
     </row>
     <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -637,13 +641,13 @@
     </row>
     <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -651,13 +655,13 @@
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -668,10 +672,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -682,10 +686,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -701,14 +705,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -719,24 +723,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -746,15 +750,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DF2FC2-2B0D-0B42-899E-2C094C966549}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,19 +768,21 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>